--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sensors Mode"/>
     <sheet r:id="rId2" sheetId="2" name="Ports"/>
-    <sheet r:id="rId3" sheetId="3" name="Sheet1"/>
+    <sheet r:id="rId3" sheetId="3" name="Color Code"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -658,12 +658,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="12.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="10" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="5">
         <v>4</v>
       </c>
